--- a/OptumBankQuestionsMaster.xlsx
+++ b/OptumBankQuestionsMaster.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="-15860" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="16640" yWindow="-19940" windowWidth="18720" windowHeight="18180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HSA" sheetId="1" r:id="rId1"/>
+    <sheet name="FSA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Question (listed are potential versions of a questioning line posed by a user)</t>
   </si>
@@ -34,13 +35,510 @@
   </si>
   <si>
     <t>Approved By:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is Optum®/Optum Bank®?
+What is Optum Bank?
+Tell me about Optum Bank. </t>
+  </si>
+  <si>
+    <t>Optum Bank is dedicated to making the health care system work better for everyone by enabling people to become savvy health care consumers. Go online to learn more at optum.com or optumbank.com.</t>
+  </si>
+  <si>
+    <t>What new features are available with an Optum Bank® HSA?
+What features are available with Optum Bank?
+What features does Optum Bank have?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A few enhancements include online contributions, bill payments and reimbursement options. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP AI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Would you like to learn about more features?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(If response is yes, look to A4 for conversation flow)</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes I would like to hear about more features.
+Yes.</t>
+  </si>
+  <si>
+    <t>It also provides HSA calculators, multiple investment options, and constant customer care.</t>
+  </si>
+  <si>
+    <t>What are the  customer service hours?
+When is customer service available?
+When can I call customer service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer service is available Monday through Friday, 8:00 a.m. to 10:00 p.m.; Saturday and Sunday, 9:00 a.m. to 5:30 p.m.; Eastern time.
+</t>
+  </si>
+  <si>
+    <t>Does Optum Bank offer an alternate billing account for the monthly service fee?
+Is there another billing account for monthly fees?</t>
+  </si>
+  <si>
+    <t>No, the monthly service fee is automatically deducted from the account holder’s HSA.
+No, the fee is automatically deducted.</t>
+  </si>
+  <si>
+    <t>Do I have to close my account if I switch jobs, no longer have a high-deductible health plan, or qualify for Medicare?
+If I switch jobs do I have to close my account?
+If I don't have a high deductible plan do I have to close my account?
+If I qualify for Medicare do I have to close my account?</t>
+  </si>
+  <si>
+    <t>No, you can keep your HSA.
+No you may keep your HSA.</t>
+  </si>
+  <si>
+    <t>Can the Optum Bank debit card be used at an ATM?  Is there a fee?
+Can I use the debit card at an ATM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the Optum Bank debit card can be used at ATMs and applicable fees apply. 
+Yes it can with applicable fees. </t>
+  </si>
+  <si>
+    <t>Can HSA's be used to pay premiums?
+Can my HSA be used to pay a premium?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If it is a nonmedical withdrawal an HSA may not be used as nonmedical withdrawals are subject to taxes and penalties. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP AI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Would you like to hear the exceptions?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(If response is yes, look to A10 for conversation flow)</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes I would like to hear the excceptions.
+Yes.</t>
+  </si>
+  <si>
+    <t>*insert exceptions*</t>
+  </si>
+  <si>
+    <t>If my spouse and I are both covered by HSA-qualified health plans, can we both contribute to an HSA account?
+If me and my partner have HSA plans, can we both add to the HSA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With a self-only contract you can contribute as you wish, but no more than the maximum annual family contribution in total to the two HSAs.With a family contract you canot add more than the maximum annual contribution.
+</t>
+  </si>
+  <si>
+    <t>If I am covered by an FSA, can I still contribute to an HSA account?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The type of FSA will determine if you can still contribute.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Would you like to hear all of the options regarding FSAs and HSA contribution?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(If response is yes, look to A13 for conversation flow)</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes I would like to hear about my FSA options.
+Yes.</t>
+  </si>
+  <si>
+    <t>A General Health FSA is not HSA-eligible. A Limited-Purpose Health FSA only covers dental and vision expenses, and partially covers select preventive services.. A Post-Deductible Health FSA does not begin to pay benefits until you meet the minimum annual deductible for the contract type on an HSA-qualified plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long should I save my receipts for my HSA medical expenses? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Save your receipts for at least three years.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP AI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Would you like to more about the IRS policy on receipts?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(If response is yes, look to A15 for conversation flow)</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes I would like more information regarding my receipts.
+Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The IRS will generally not look back further than three years due to a Statute of Limitations beyond that point. Keep in mind, if the IRS suspects fraud, they will disregard the Statute of Limitations and look back as far as they think is necessary. Using our online expense tracker, you can easily enter medical expense information and securely upload receipts and supporting documentation – all in one place for easy access and tracking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My employer only funded a portion of my HSA, can I still contribute to it?
+Can I fund my HSA even if my employer funded part of it?
+Can I put more into my HSA than my employer already did?
+</t>
+  </si>
+  <si>
+    <t>Yes, you may fully fund your HSA up to the contribution limit.
+Yep, but remember the contribution limit stays the same.
+You can contribute to your HSA as long as you stay under the contribution limit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the minimum threshold to begin investing in an HSA? 
+What is the least ammount of money I can invest into my HSA?
+Do I need to keep a minimum balance?
+</t>
+  </si>
+  <si>
+    <t>You must maintain a minimum balance in your HSA of at least $100 more than your investment threshold to make investments, because investments purchases must be equal to or greater than $100. You can find your investment threshold by logging into your account.
+You need at least $100 more than your investment threshold in your account.
+You must maintain at least your minimal investment threshold plus $100 in your account.</t>
+  </si>
+  <si>
+    <t>What is a catch-up contribution?
+Can I make a catch-up contribution?
+What can you tell me about catch-up contributions?</t>
+  </si>
+  <si>
+    <t>Eligible individuals who are over age 55 are allowed to make additional “catch-up” contributions to their HSAs. The catch-up contribution is $1,000.
+People over 55 can make extra contributions to their HSA, up to $1000 a year.
+If you are over 55 you can make extra $1000 contributions to your HSA. In the biz we call these "catch-up" contributions</t>
+  </si>
+  <si>
+    <t>What if I was but no longer am eligible for an HSA, can I still make a contribution?
+I stopped being eligible, can I still contribute to my HSA?
+Can I use an HSA to pay for things from last year?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can make an HSA contribution even if you are no longer eligible if you are making it for a period when you were eligible. For example, assume you were eligible all of 2010 but you never opened or funded an HSA. Starting in 2011, you are no longer eligible. You can still make an HSA contribution in 2011 for 2010 (because you were eligible in 2010). Be careful as to how much you can contribute in a situation like this.
+You can make contributions to pay for qualified expenses in years you were eligible. Be careful about cow much you contribute.
+</t>
+  </si>
+  <si>
+    <t>What expenses are qualified for reimbursement from my HSA?
+What can my HSA reimburse me for?
+If I paid for a medical expense out of pocket can I reimburse myself from my HSA?</t>
+  </si>
+  <si>
+    <t>You are eligible to receive tax-free reimbursement for qualified health expenses not covered by your insurance as defined by Section 213(d) of the Tax Code. A list of these expenses is available on the IRS website. HSA distributions used for any purpose other than the qualified medical expenses listed will be taxable, and the appropriate tax rules will apply.
+You can use your HSA to reimburse youeself from qualified health expenses not covered by insureance. Check the IRS website for the full list
+You can look on the IRS website to see all expenses you can use your HSA for.</t>
+  </si>
+  <si>
+    <t>When will my tax forms for my HSA be available? 
+When can I access my HSA tax  forms?
+When can I see my (1099-SA/5498-SA)?</t>
+  </si>
+  <si>
+    <t>A. IRS Form 1099-SA is typically available around the end of January and will be posted to your account and mailed if you elected for a paper form. IRS Form 5498-SA is typically available around the end of February.
+Your 1099-SA should be ready by the end of January and your 5498-SA by the end of February.
+Your HSA Tax forms will be available by the end of February.</t>
+  </si>
+  <si>
+    <t>Can I make contributions through my employer on a "pre-tax" basis?
+Can I make "pre-tax" contributions?
+Can I make "pre-tax" contributions through my employer?</t>
+  </si>
+  <si>
+    <t>If your employer offers a "salary reduction" plan (also known as a "Section 125 plan" or "cafeteria plan"), you (the employee) can make contributions to your HSA on a pre-tax basis (i.e., before income taxes and FICA taxes). If you can do so, you cannot also take the "above-the-line" deduction on your personal income taxes.
+You can if your employer offers a "salary reduction" or "cafeteria plan"
+Your employer might allow you to make "pre-tax" contributions. Keep in mind, if you do you can't deduct it a second time for your personal taxes.</t>
+  </si>
+  <si>
+    <t>How are contributions treated for owners and shareholders of S corps?
+How does owning an S corp affect my HSA?
+Am I eligible to make "pre-tax" contributions through my S corp?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owners and officers with greater than 2% share of a Subchapter S corporation cannot make pre-tax contributions to their HSAs through the company by salary reduction. In addition, any contributions made to their HSAs by the corporation are taxable as income. However, they can make their own personal contributions to their HSAs and take the "above-the-line" deduction on their personal income taxes.
+You can not make "pre-tax" contributions through your S corporation but you can take "above-the-line" deductions on your own taxes.
+While you can't use your S corp for a "salary reduction" plan you can take deductions on your personal taxes.
+</t>
+  </si>
+  <si>
+    <t>How do I transfer an HSA?
+I want to transfer my HSA, what do I need to know?
+Can you walk me through transfering my HSA?</t>
+  </si>
+  <si>
+    <t>If you already have a Health Savings Account (HSA) at another institution and would like to transfer the balance to your HSA, you can find the instructions on our Transfer and Rollover page.
+The OptumBank Transfer and Rollover page has all the information you need.
+Look online on our Transfer and Rollover page for how to transfer your HSA.</t>
+  </si>
+  <si>
+    <t>How do I add/change a beneficiary for my HSA account?
+How do I add my (Mom/Dad/Family Member) as a beneficiery for my HSA?
+How can I remove a beneficiary?*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log into optumbank.com or contact the Customer service number you use today for assistance
+You can edit beneficiaries online at optumbank.com or by calling customer service.
+Call customer service or log into your account online to change beneficiaries.
+</t>
+  </si>
+  <si>
+    <t>Which states tax HSA contributions? 
+Does my state tax HSA contributions?
+Do I need to pay state taxes on my HSA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible HSA contributions are taxed by these states; Alabama,  California, and  New Jersey *Consult your financial advisor or state department of revenue for more information. 
+Only Alabama, California and New Jersey tax HSA contributions.
+If you live in Alabama, California, or New Jersey you may be subject to taxes on your HSA contributions
+</t>
+  </si>
+  <si>
+    <t>Where is the list of available mutual funds for an HSA ?
+Can I use a mutual fund for my HSA?
+Can I invest my HSA into (Mutual Fund Name)?</t>
+  </si>
+  <si>
+    <t>Optum Bank offers diversfied mutual fund options. The list of avaliable  funds can be found be found on OptumBank.com
+Check OptumBank.com to see all of our mutual fund options.
+You can use some mutual funds for your HSA, check online at optumbank.com for a complete list.</t>
+  </si>
+  <si>
+    <t>What tools can help me invest? 
+Can you help me invest?
+Are there any tools to make investing easier?</t>
+  </si>
+  <si>
+    <t>Optum Bank provides multiple planning and guidance tools which can be found on the OptumBank.com. Through Optum Bank you are able to track your portfolio's performance, view market trends, have access to an HSA allocation calculator, and mannually or automatically rebalance your portfolio assets. 
+Opum Bank has loads of helpful tools on our website to help you manage your investments
+Check our website for a number of tools that can make investing your HSA easier!</t>
+  </si>
+  <si>
+    <t>What does pre-tax dollars mean? Why is this important?
+What are pre-tax dollars?</t>
+  </si>
+  <si>
+    <t>The money you save to pay for health care comese out of your salary before taxes. This lowers your taxable income, and your tax liability.</t>
+  </si>
+  <si>
+    <t>How do I estimate how much to save in my FSA?
+How much should I save in my FSA?</t>
+  </si>
+  <si>
+    <t>You can check your health care claims and daycare invoices from the previous year to know how much you can spend in the coming year.</t>
+  </si>
+  <si>
+    <t>What is the difference between the health care FSA and the dependent care FSA?
+What is a health care FSA?
+What is a dependent FSA?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The health care FSA and the dependent care FSA are completely separate accounts for different uses. Money from one FSA cannot be used for the other account’s purpose. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP AI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Would you like to hear what each account can cover?
+(If answer is yes, look to A5 for conversation flow)</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes I'd like to know what my account can cover.
+Yes.</t>
+  </si>
+  <si>
+    <t>• Sample health care FSA expenses: doctor’s office visits, physical exams, hospital care, prescriptions, etc. • Sample dependent care FSA expenses: licensed daycare, elder care, preschool programs, etc.</t>
+  </si>
+  <si>
+    <t>Can I change my annual election amount?
+How do I change my annual election amount?</t>
+  </si>
+  <si>
+    <t>You can change your elected amount only if you have a change in employment status or family status, and the amount change can only happen within 30 days of the event.</t>
+  </si>
+  <si>
+    <t>How do I submit my receipts for my HSA medical expenses? 
+How do I send in my receipts for medical expenses?</t>
+  </si>
+  <si>
+    <t>Through the online expense tracker, you can upload receipts and supporting documentation.</t>
+  </si>
+  <si>
+    <t>Who can contribute to my HSA? 
+Who can put money into my HSA?</t>
+  </si>
+  <si>
+    <t>For an HSA established for an employee, the employee and the employer may make contributions. Family members may also make contributions on behalf of other family members if they are eligible individuals.</t>
+  </si>
+  <si>
+    <t>What happens to the money in the FSA if I don’t use it all in one year?
+Does my FSA roll over?
+Will I lose the money in my FSA if I don't spend it?</t>
+  </si>
+  <si>
+    <t>The IRS has a “use or lose” rule for FSAs. This rule states that you’ll lose any unused money still in your account at the end of the plan year. Your employer, however, may have a “run-out” period after the plan year’s ends that allows you to submit claims for eligible expenses that were incurred during the plan year. This runout period may or may not include a grace period that allows you to incur claims for up to 2.5 months after the end of the plan year, and submit them against the prior year’s balance for reimbursement. Check with your employer or plan document to determine if your plan has a run-out period or a grace period.
+FSA's do not roll over.
+If you do not use all of the money in your FSA you will lose the rest.</t>
+  </si>
+  <si>
+    <t>What are eligible medical expenses?
+What can I use my FSA to pay for?
+Can I use my FSA to pay for (Expense)</t>
+  </si>
+  <si>
+    <t>Your health care FSA can be used to pay for a variety of health care expenses incurred by you, your spouse and your dependents. Doctor visits, chiropractor fees, prescription drug copayments, dental care and vision care not otherwise covered by a health plan are all eligible health care expenses. Due to health care reform law, over-the-counter medicines will no longer be an eligible medical expense starting January 1, 2011. You may also use your FSA funds to reimburse expenses under a spouse’s health plan for co-payments, deductibles or coinsurance. Eligible health care expenses are outlined in IRS Publication 502.
+It's a long list, feel free to ask me for specific things.</t>
+  </si>
+  <si>
+    <t>What are eligible dependent care expenses?
+What can my dependents use my FSA for?
+Can I use my FSA on my kids?</t>
+  </si>
+  <si>
+    <t>A Eligible dependent care expenses include in-home childcare, payments to licensed day care facilities, before or after school programs, and elder care. You may be reimbursed for dependent care expenses incurred for any individual in your family who’s under age 13 and can be claimed as a dependent on your federal income tax return, or for a spouse or dependent who’s not able to care for him or herself. These expenses must be incurred, regardless of when billed or paid, while you’re working or looking for work. Unlike a health care FSA, you’re only able to receive a reimbursement from a dependent care FSA if sufficient funds have accumulated in your account from payroll deductions.
+It is  a long list, feel free to ask me if a specific thing is covered.</t>
+  </si>
+  <si>
+    <t>If my child turns 13 this year, can I use the dependent care account for the whole year?
+When is the last day I can use my FSA on my child?
+Is there an age limit on using my FSA for my kid?</t>
+  </si>
+  <si>
+    <t>No, you may only submit claims for reimbursement for expenses incurred before your child reaches the age of 13.
+You can only use an FSA on children under 13.
+You can use your FSA on your child until they turn 13.</t>
+  </si>
+  <si>
+    <t>I’m enrolled in a Health Savings Account (HSA). Can I still enroll in a health care FSA?
+Does an HSA lock me out of an FSA?
+Can I have both and FSA and an HSA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you contribute to an HSA, you may only participate in a limited-use FSA. A limited-use FSA allows reimbursement of dental, vision and preventive care services only.
+You can still enroll in a limited-use FSA.
+You can but it can only be used for dental,vision and preventive care
+</t>
+  </si>
+  <si>
+    <t>Are there contribution limits?
+How much can I contribute to my FSA?
+Can I put too much money in my FSA?
+Is there a limit to how much I can contribute?</t>
+  </si>
+  <si>
+    <t>The maximum contribution amount for the health care FSA will be $2,500. For dependent care FSAs, the annual maximum is $5,000.
+"For health care FSAs, your employer determines the minimum and maximum amounts you can set aside in your FSA. However as a result of Health Care Reform beginning January 1, 2013 the maximum contribution amount for the health care FSA will be $2,500. For dependent care FSAs, the annual maximum you can contribute is $5,000, including any amount set aside by a spouse into their dependent care FSA.
+There is a limit of $2,500 for individual FSA's and $5,000 for dependent care FSA's.
+You can only add $2,500 to your own FSA and twice that for dependents."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,8 +577,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +622,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,8 +643,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -123,8 +686,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -135,29 +720,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -503,141 +1152,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="120">
+      <c r="A21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="105">
+      <c r="A22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="105">
+      <c r="A24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="150">
+      <c r="A25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="75">
+      <c r="A27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="90">
+      <c r="A28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="75">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90">
+      <c r="A30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1"/>
@@ -650,6 +1415,144 @@
     <row r="34" spans="1:2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75">
+      <c r="A4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="150">
+      <c r="A7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="150">
+      <c r="A8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90">
+      <c r="A9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135">
+      <c r="A10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="150">
+      <c r="A11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90">
+      <c r="A13" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OptumBankQuestionsMaster.xlsx
+++ b/OptumBankQuestionsMaster.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="-19940" windowWidth="18720" windowHeight="18180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14940" yWindow="-21600" windowWidth="34320" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="1" r:id="rId1"/>
     <sheet name="FSA" sheetId="2" r:id="rId2"/>
+    <sheet name="HRA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="213">
   <si>
     <t>Question (listed are potential versions of a questioning line posed by a user)</t>
   </si>
@@ -497,10 +498,6 @@
 Can I use my FSA on my kids?</t>
   </si>
   <si>
-    <t>A Eligible dependent care expenses include in-home childcare, payments to licensed day care facilities, before or after school programs, and elder care. You may be reimbursed for dependent care expenses incurred for any individual in your family who’s under age 13 and can be claimed as a dependent on your federal income tax return, or for a spouse or dependent who’s not able to care for him or herself. These expenses must be incurred, regardless of when billed or paid, while you’re working or looking for work. Unlike a health care FSA, you’re only able to receive a reimbursement from a dependent care FSA if sufficient funds have accumulated in your account from payroll deductions.
-It is  a long list, feel free to ask me if a specific thing is covered.</t>
-  </si>
-  <si>
     <t>If my child turns 13 this year, can I use the dependent care account for the whole year?
 When is the last day I can use my FSA on my child?
 Is there an age limit on using my FSA for my kid?</t>
@@ -532,13 +529,793 @@
 "For health care FSAs, your employer determines the minimum and maximum amounts you can set aside in your FSA. However as a result of Health Care Reform beginning January 1, 2013 the maximum contribution amount for the health care FSA will be $2,500. For dependent care FSAs, the annual maximum you can contribute is $5,000, including any amount set aside by a spouse into their dependent care FSA.
 There is a limit of $2,500 for individual FSA's and $5,000 for dependent care FSA's.
 You can only add $2,500 to your own FSA and twice that for dependents."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happens to the money in a HSA after I turn age 65? 
+What happens to my Health Savings Account after turning 65?
+Tell me about my Health savings account when I'm older/65
+How can I use my Health savings account after turning 65? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the age of 65, you can use your health savings account to pay for non medical expenses, however these will be taxable as income. You will also be able to use the money in your account to pay for any retiree health benefits you might have, or and Medicare related expenses. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Follow up question from AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Would you like to hear more about what you can do if you are older than 65? 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will still be able to use your account for out-of-pocket health expenses tax free. Those enrolled in Medicare can use your account to pay Medicare premiums, deductibles, copays, and coinsurance under any part of Medicare. The one expense that you cannot use your account to pay for is for Medicare supplemental insurance or Medigap policy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I access the funds after I reach age 65?
+How do I get my funds from my health savings account? 
+Can I get my funds from my health savings account? 
+I want to get my funds from my health savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the age of 65, you can withdraw funds at any time. These funds can be used to pay for medical expenses, and also premiums for Medicare part A or B, Medicare HMO, and employee premiums. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the account beneficiary has attained age 65, are Medicare Part D premiums qualified medical expenses?
+are Medicare Part D premiums medical expenses?
+Can Medicare Part D premiums be used as medical expenses? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are at least 65 years old, Medicare Part D premiums are qualified as medical expenses. 
+Medicare Part D premiums are qualified as medical expenses if you are the age of 65. 
+Beneficiaries over the age of 65 can use Medicare Part D premiums as medical expenses. The beneficiares spouse and dependents are also qualified. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the year of 2017, you can contribute $4,400 for individual coverage, and $7,750 for family coverage. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Follow up question from AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">There are different contribution rates for 2018 and other benefits for those older than 65. Would you like to hear those? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2018, you can contribute $4,450 for individual coverage and $7,900 for family coverage. If you are 65, you can make an additional $1,000 catch-up contributions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Support 
+I want customer support
+What is the number for customer support
+How do I get customer support? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Follow up questions from AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Did you transfer your account from Wells Fargo? 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Get that pen ready? The number for Optum Bank 1-844-326-7967. They are available 24/7. 
+Call Optum Bank at 1-844-326-7967. they are avaiable 24 hours a day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Follow up question from AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Okay. Do you have UHC insurance? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Get that pen ready! Call 1-800-791-9361. These customer care professionals are available Monday-Friday, 8AM to 8PM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call 1-866-243-8913. On Monday through Friday, 8.am to 10pm, and Saturday through Sunday 9am to 5:30pm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are Optum Banks Fees? 
+Tell me about Optum Banks Fees
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Follow up question from AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">There are three types of fees: Monthly Maintenance fees, ATM fees, and Outbound Transfer fees. Which would you like to hear about? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthy Maintenance Fees
+ATM Fees 
+Outbound Transfer Fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What expenses can I pay for with my health account? 
+</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Follow up Question from AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Was it lost, stolen, or are you just in need of an additional card? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Follow up Question from AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Don't worry, we're here to help. Was it lost or stolen? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">How much can I contribute to my HSA?
+How much can I put into my HSA?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I use my Health Savings Account to pay for Long Term Care Insurance?
+I want to use my HSA for Long Term Care 
+How can I pay for Long Term Care Insurance 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, a limited amount Long Term Care insurance can be paid with your HSA. This amount is based on your age. 
+A limited amount of distributions, based on age, can be used for Long Term Care Insurance premiums. 
+Long Term Care insurance premiums qualify as a non penalty medical expense from your HSA, however, the amount of distribution is limted based on your age. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I use my HSA to pay for health insurance premiums, including Medicare, of a spouse or dependent? 
+Can my HSA pay for my spouse/dependents? 
+Can I use my HSA to pay for health insurance for my spouse / dependents? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only if you are over the age of 65. However, you can only pay for your spouse/dependent if they receive health care coverage through COBRA, or if they are getting unemploymemt compensation. 
+If you are at least 65, you can use your HSA to pay for your spouses/dependents insurance premiums if they are covered by COBRA or have unemployment compensation 
+Those over the age of 65 can pay for their spouses/dependents insurance premiums with HSA. However, they have to be covered by COBRA or unemployment compensation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month by month fee schedules can be found under the "view your account details" tab on the HSA Dashboard after you login. You can also refer to your Optum Bank Welcome Kit or your Employer Open Enrollment materials.
+You are charged $2.50 for each ATM transaction, any any other potential banking fees the atm might have. 
+For every transaction, $2.50 will be charged to your account. The bank's atm might have withdrawl fees. 
+If you want to transfer your HSA to another bank, you will be charged $20.00. 
+$20.00 will be charged to your account if you want to transfer any amount of your HSA to another bank or custodian. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting a new HSA Card
+Can I get a new HSA card? 
+How do I get a new HSA card? 
+</t>
+  </si>
+  <si>
+    <t>My HSA card was lost. 
+My HSA card was stolen. 
+My HSA card is stolen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please call this number: 1-866-234-8913. This is the Optum Bank HSA number. They are available 24 hours a day. The number for Health Advantage Suite of Accounts is 1-800-243-5543. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 
+I want to order an additional HSA card
+I want another HSA card 
+Can I order a new HSA card? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to order additonal cards for either your spouse or dependents, go to Optum Banks website. 
+You can order new HSA cards for your spouse or other dependents if you to to Optum Banks website
+Yes, you can order an additional card. Go to Optum Banks website to order HSA cards for your spouse or other dependents. </t>
+  </si>
+  <si>
+    <t>How can my spouse and I both contribute to an HSA account if we're both covered by HSA-qualified health plans?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Followup Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Are the accounts self-only (A4) or family contract (A5)?</t>
+    </r>
+  </si>
+  <si>
+    <t>Self Only Contract</t>
+  </si>
+  <si>
+    <t>Allocate the total contribution between two HSAs as you want as long as you don't contribute more than the statutory maxinmum annual family contribution in total to both HSAs</t>
+  </si>
+  <si>
+    <t>Family Contract</t>
+  </si>
+  <si>
+    <t>You can contribute no more than the statutory maximum annual contribution</t>
+  </si>
+  <si>
+    <t>How do I get a PIN?</t>
+  </si>
+  <si>
+    <t>A new owner can get a PIN when they first activate their debit card. An existing PIN can be changed or found on the customer service number on the back of your card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I'm covered by an FSA, can I still contribute to an HSA account </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">General Health FSAs are not HSA-eligible but, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Followup Question: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Do you have a Limited Purpose (A7) or Post-Deductible FSA (A8)?</t>
+    </r>
+  </si>
+  <si>
+    <t>Limited-Purpose</t>
+  </si>
+  <si>
+    <t>A Limited-Purpose Health FSA reimburses dental and vision expenses and select preventative services which aren't covered completely</t>
+  </si>
+  <si>
+    <t>Post-Deductible</t>
+  </si>
+  <si>
+    <t>A Post-Deductible FSA doesn't begin to pay benefits until the subscriber has met a deductible responsibility equal to the minimum annual deductible for his or her contract type on an HSA-qualified plan</t>
+  </si>
+  <si>
+    <t>Can HSA's be used to pay premiums?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If it's a nonmedical withdrawal, no because they're subject to taxes and penalities. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Followup Question: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is it a medical withdrawal? (A10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>There is no penalty or tax if the money is withdrawn to pay premiums for qualified long term insurance and other cases.</t>
+  </si>
+  <si>
+    <t>What are the different IRS forms?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Followup Question: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What IRS form would you like to learn about? (A12/A13/A14)</t>
+    </r>
+  </si>
+  <si>
+    <t>8899 Form</t>
+  </si>
+  <si>
+    <t>File this form with your income taxes to report year-to-date contributions and distributions from your HSA</t>
+  </si>
+  <si>
+    <t>1099-SA Form</t>
+  </si>
+  <si>
+    <t>This form provides you with the total distributions that were made from your HSA.</t>
+  </si>
+  <si>
+    <t>5498-SA Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This form reports the contributions made to your HSA in that particular tax year. </t>
+  </si>
+  <si>
+    <t>What is an HRA?</t>
+  </si>
+  <si>
+    <t>The Health Reimbursement Arrangements are employer-funded plans that reimburse employees for incurred medical expenses that are not covered by the company's standard insurance plan.</t>
+  </si>
+  <si>
+    <t>What are the benefits of an HRA?
+How does an HRA benefit me?</t>
+  </si>
+  <si>
+    <t>Your employer funds your HRA pre-tax. There are no tax implications since your employer allocates the money. Participating in an HRA is a great way to stretch your healthcare budget. These are just a few of the benefits, would you like to hear more?</t>
+  </si>
+  <si>
+    <t>What types of medical expenses are covered by an HRA?
+What's covered by an HRA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRA funds must be used for healthcare expenditures only? Approved healthcare expenditures include those identified by your employer as reimbursable from the HRA that are described as Medical Expenses in section 213(d) of the IRS code. More details can be found if you say more. </t>
+  </si>
+  <si>
+    <t>Can I contribute funds to my HRA?
+Can I contribute to my HRA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No you can not personally contribute. HRAs are only funded by your employer. </t>
+  </si>
+  <si>
+    <t>Can I use an HRA if I have health insurance?</t>
+  </si>
+  <si>
+    <t>Yes. HRA is designed to cover expenses not paid by your health insurance plan</t>
+  </si>
+  <si>
+    <t>What can I pay for with my HRA?
+What does my HRA pay for?</t>
+  </si>
+  <si>
+    <t>HRA funds can be used on eligible expenses determined by your employer</t>
+  </si>
+  <si>
+    <t>How does an HRA work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With an HRA, employers contribute money for each employee to pay for out-of-pocket medical costs. </t>
+  </si>
+  <si>
+    <t>How will I receive the FSA reimbursement?
+How do I get reimbursed for my FSA?</t>
+  </si>
+  <si>
+    <t>After your claim is approved, you will receive a check in the mail or you can sign up for direct deposit.
+If your claim is approved, Optum Bank will send you a check or you can sign up for direct deposit.</t>
+  </si>
+  <si>
+    <t>How often are FSA claims for reimbursement paid?
+How long do FSA claim reimbursements take?</t>
+  </si>
+  <si>
+    <t>Members are typically reimbursed from their FSA within 10 to 14 days. Claims are processed and paid on a weekly basis. Once HealthPartners receives the claim, we take five business days to pay, pend, or deny the claims. 
+Reimbursements typically take 10 to 14 days. Once Healthpartners receives the claim, we take five business days to pay, pend, or deny it.</t>
+  </si>
+  <si>
+    <t>What is acceptable documentation for FSA claims?
+What do I need to make an FSA claim?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are a number of documents that can and should be submitted for an FSA claim to be accepted. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP QUESTION FROM AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Would you like to hear some examples?</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes.
+Please provide some examples.</t>
+  </si>
+  <si>
+    <t>Here are a few documents that can be used to make a claim: An explanation of benefits that you received for the medical service; Any receipts that includes the type of service or product provided, the date the expense was incurred, the name of the employee or dependent, the person or organization that provided the service or product, and the amount of the expense; Payment plans should be submitted for regular expenses like orthodontia payment plans; For dependent care expenses, a copy of the bill or signed receipt is acceptable. Make sure your provider has completed the Dependent Care section of the claim form.</t>
+  </si>
+  <si>
+    <t>How do I handle recurring claims on my FSA, like orthodontia?
+Are recurring claims to my FSA handled differently?</t>
+  </si>
+  <si>
+    <t>Recurring claims, like orthodontia payments, can be submitted with supporting payment plan documentation from the service provider. This way, you do not need to send in a claim form for each payment. You will automatically receive monthly allocation reimbursements up to your annual elected amount. However, you do need to submit a new claim each year.</t>
+  </si>
+  <si>
+    <t>How do I keep track of my FSA balance?
+How do I find out how much was reimbursed from my FSA balance?</t>
+  </si>
+  <si>
+    <t>When you request a reimbursement from your FSA, HealthPartners will send you an explanation of benefits statement. The EOB will tell you how much was reimbursed from your FSA.
+Upon requesting a reimbursment, you will receive an explanation of benefits statement that will show your balance.</t>
+  </si>
+  <si>
+    <t>Can I use my Optum Bank FSA even if I am not enrolled in my company’s health plan?
+What if I am not on my company's health plan?</t>
+  </si>
+  <si>
+    <t>You may still be eligible for an FSA provided you meet the requirements. You will have to submit all claims manually via mail or fax. 
+If not enrolled in your company's health plan, you may still meet FSA requirements. All claims will have to be submitted via mail or fax.</t>
+  </si>
+  <si>
+    <t>What happens to the money in the FSA if I leave my employer?
+If I quit my job, what happens to my FSA?</t>
+  </si>
+  <si>
+    <t>If you leave your place of employment during the plan year, you may have a period to submit claims for reimbursement. Services and expenses must have been inucrred before your termination date unless you continue to contribute to your FSA account through COBRA.</t>
+  </si>
+  <si>
+    <t>If my FSA plan offers a grace period, how does that affect my eligibility for an HSA?
+Can I have an HSA if I am in my FSA plan grace period?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legislation regarding HSA/FSA coordination allows you to enroll in an HSA if: either there is no money left in the FSA at the end of the plan year, or you make a one-time rollover from the FSA to the HSA, as allowed by your employer. </t>
+  </si>
+  <si>
+    <t>Are there any special considerations for spouses working at the same company?
+What if my spouse also works at my company?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order for the automatic claims submission to work, the policy holder on the Optum Bank medical/dental plan and the participant on the FSA need to be the same person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does participation in my employer’s dependent care FSA affect my ability to claim the dependent care tax credit on my federal income tax returns?
+Will a dependent care FSA affect my federal income tax returns?
+</t>
+  </si>
+  <si>
+    <t>You cannot claim a dependent care tax credit for amounts received under an employer’s FSA plan. You may wish to consult with a tax advisor to determine whether the FSA plan or the dependent care tax credit is more beneficial in your individual case. Generally, the higher your income, the more beneficial it is to participate in the dependent care FSA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I contribute more to my HSA? 
+What ways can I add money to my HSA?
+</t>
+  </si>
+  <si>
+    <t>HSA contributions can be through payroll deductions, or by going online and making a contribution from your personal account.
+You can contribute to your HSA either through contributions made via payroll deductions by your employer, or by logging on to Optumbank.com and making a contribution from your personal checking or savings account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I transfer Optum Bank HSA money to my personal bank account?
+</t>
+  </si>
+  <si>
+    <t>Yes, you can transfer funds via direct deposit directly into your account.
+Yes, through direct deposit.</t>
+  </si>
+  <si>
+    <t>Can I use Quicken with Optum Bank?</t>
+  </si>
+  <si>
+    <t>Yes, account holders will be able to download transactions into Quicken from their Optum Bank HSA.
+Yes, you can download HSA transactions to your Quicken account.</t>
+  </si>
+  <si>
+    <t>How will Optum Bank handle accounts that reach the annual maximum?
+What if I reach the annual maximum on my account?</t>
+  </si>
+  <si>
+    <t>Communication is sent to account holders when accounts are close to reaching the annual maximum. 
+Optum Bank will alert you when you are nearing the annual maximum.</t>
+  </si>
+  <si>
+    <t>Is the Optum Bank investment sweep a one-way sweep from the cash account to the investment?
+How does the Optum Bank investment sweep work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Optum Bank investment sweep is a one-way sweep from the Optum Bank HSA to the investment account.</t>
+  </si>
+  <si>
+    <t>Does the investment balance show online with a breakdown of the dollars in each fund?
+How is my investment balance shown?</t>
+  </si>
+  <si>
+    <t>The Optum Bank website shows both the aggregate balance and the balance by fund.
+Go to OptumBank.com, where you can see both your aggregate balance and a breakdown of balance by fund.</t>
+  </si>
+  <si>
+    <t>How is the Optum Bank investment sweep activated and deactivated?
+How do I activate the Optum Bank investment sweep?
+How do I deactivate the Optum Bank investment sweep?</t>
+  </si>
+  <si>
+    <t>Activating or deactivating the investment sweep is available online or by calling the call center, but the account must be registered prior to the call.
+To activate or deactivate your account, log in online or call us. Note that the account must be registered prior to telephone activation or deactivation.</t>
+  </si>
+  <si>
+    <t>Can the Optum Bank HSA be used with mobile wallets such as Apple Pay, Android Pay, Samsung Pay, and Google Wallet?
+Can I use a mobile payment app with Optum Bank HSA?</t>
+  </si>
+  <si>
+    <t>Optum Bank does not currently offer connectivity with mobile wallets, but will offer this in a future enhancement. If you currently have a tokenized card, this functionality will not be migrated.</t>
+  </si>
+  <si>
+    <t>How frequently will Optum Bank statements be generated?
+When will I get my bank statements?</t>
+  </si>
+  <si>
+    <t>Optum Bank statements are issued on a monthly basis.
+Bank statements are sent out monthly.</t>
+  </si>
+  <si>
+    <t>How can I use my HSA to pay for qualified medical expenses?
+How do I pay for my medical expenses?</t>
+  </si>
+  <si>
+    <t>The easiest way to pay your medical expenses is by using your Optum Bank Health Savings Account Debit Mastercard. Other alternatives include paying bills online by logging into your account and sending payments directly to your health care providers, or paying out of pocket and reimbursing yourself by requesting an electronic reimbursement online.
+You can pay your expenses by using your Optum Bank HSA debit card, paying your bills online and sending payments directly to your healthcare providers, or by paying out of pocket and requesting an electronic reimbursement online.</t>
+  </si>
+  <si>
+    <t>How are Optum Bank statements generated: paper, online, or both? 
+How do I view my bank statements?
+How long are bank statements stored online to be available for download?</t>
+  </si>
+  <si>
+    <t>Statements are available both online and on paper. Statements remain online for 36 months, whereas paper statements can be requested at any time.
+Online statements can be accessed on our website and remain online for 36 months. Paper statements can be requested at any time.</t>
+  </si>
+  <si>
+    <t>Where can I obtain a copy of my tax forms?
+How do I see tax forms?</t>
+  </si>
+  <si>
+    <t>Your forms can be found by logging into your online account and viewing your statements.
+Log into your account on OptumBank.com to view your tax forms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I order an additional debit card or get a PIN?
+Can I get more than one debit card?
+</t>
+  </si>
+  <si>
+    <t>You can order additional cards online. You will be able to choose a PIN when you first activate your debit card.
+Additional cards can be ordered online. You can choose a new PIN upon card activation.</t>
+  </si>
+  <si>
+    <t>How do I start using my HSA?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow our new account holder checklist to get off to a good start.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP QUESTION FROM AI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Would you like to hear more about this?</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes.
+Yes, tell me about the new account holder checklist.</t>
+  </si>
+  <si>
+    <t>Using our website, navigate to the new account holder checklist in the customer-support section. This checklist will guide you through registering for online access to your account and starting to make contributions.</t>
+  </si>
+  <si>
+    <t>I'm thinking about opening an HSA, am I eligible?
+Am I eligible to open an HSA?</t>
+  </si>
+  <si>
+    <t>The main requirement for opening an HSA is having a high-deductible health plan that meets IRS guidelines.
+In order to be eligible for an HSA, you must have a high-deductible health plan that meets IRS guidelines.</t>
+  </si>
+  <si>
+    <t>Eligible dependent care expenses include in-home childcare, payments to licensed day care facilities, before or after school programs, and elder care. You may be reimbursed for dependent care expenses incurred for any individual in your family who’s under age 13 and can be claimed as a dependent on your federal income tax return, or for a spouse or dependent who’s not able to care for him or herself. These expenses must be incurred, regardless of when billed or paid, while you’re working or looking for work. Unlike a health care FSA, you’re only able to receive a reimbursement from a dependent care FSA if sufficient funds have accumulated in your account from payroll deductions.
+It is  a long list, feel free to ask me if a specific thing is covered.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,7 +1380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,14 +1389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -635,7 +1405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -645,169 +1415,188 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="13" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1136,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1152,269 +1941,875 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="90">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="60">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="60">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="45">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="75">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="45">
+      <c r="A17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="75">
+      <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="10" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="75">
+      <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="9" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="75">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="120">
-      <c r="A21" s="10" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="120">
+      <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="105">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="11" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="90">
+      <c r="A23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="105">
-      <c r="A24" s="9" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="105">
+      <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="11" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="150">
+      <c r="A25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="9" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="75">
+      <c r="A26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="75">
-      <c r="A27" s="11" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="75">
+      <c r="A27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="90">
+      <c r="A28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="75">
-      <c r="A29" s="3" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="75">
+      <c r="A29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="13" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="90">
+      <c r="A30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="120">
+      <c r="A31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" ht="60">
+      <c r="A32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="75">
+      <c r="A33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="120">
+      <c r="A34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" ht="90">
+      <c r="A35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="135">
+      <c r="A36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="60">
+      <c r="A37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="60">
+      <c r="A39" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="30">
+      <c r="A40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="A43" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="45">
+      <c r="A44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" ht="210">
+      <c r="A45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" ht="45">
+      <c r="A46" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="75">
+      <c r="A47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="45">
+      <c r="A48" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="120">
+      <c r="A49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" ht="45">
+      <c r="A51" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" ht="30">
+      <c r="A55" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" ht="45">
+      <c r="A56" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="30">
+      <c r="A59" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" ht="30">
+      <c r="A61" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="75">
+      <c r="A64" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" ht="45">
+      <c r="A65" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" ht="45">
+      <c r="A66" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" ht="45">
+      <c r="A67" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" ht="45">
+      <c r="A68" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="45">
+      <c r="A69" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" ht="60">
+      <c r="A70" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" ht="45">
+      <c r="A71" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" ht="30">
+      <c r="A72" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" ht="105">
+      <c r="A73" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="75">
+      <c r="A74" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="1:5" ht="30">
+      <c r="A75" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" ht="45">
+      <c r="A76" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" ht="30">
+      <c r="A77" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" ht="45">
+      <c r="A78" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" ht="60">
+      <c r="A79" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1429,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1442,116 +2837,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="150">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="150">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="90">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="10" spans="1:5" ht="135">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="150">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="18" t="s">
+      <c r="B12" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="19" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="90">
+      <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="90">
-      <c r="A13" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>82</v>
+    </row>
+    <row r="14" spans="1:5" ht="60">
+      <c r="A14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75">
+      <c r="A15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45">
+      <c r="A16" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="120">
+      <c r="A17" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75">
+      <c r="A18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90">
+      <c r="A24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1563,4 +3046,84 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="2" max="2" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45">
+      <c r="A1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60">
+      <c r="A3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/OptumBankQuestionsMaster.xlsx
+++ b/OptumBankQuestionsMaster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="-21600" windowWidth="34320" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="21600" yWindow="-18460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="216">
   <si>
     <t>Question (listed are potential versions of a questioning line posed by a user)</t>
   </si>
@@ -51,49 +51,8 @@
 What features does Optum Bank have?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A few enhancements include online contributions, bill payments and reimbursement options. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FOLLOW UP AI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Would you like to learn about more features?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(If response is yes, look to A4 for conversation flow)</t>
-    </r>
-  </si>
-  <si>
     <t>Yes I would like to hear about more features.
 Yes.</t>
-  </si>
-  <si>
-    <t>It also provides HSA calculators, multiple investment options, and constant customer care.</t>
-  </si>
-  <si>
-    <t>What are the  customer service hours?
-When is customer service available?
-When can I call customer service?</t>
   </si>
   <si>
     <t xml:space="preserve">Customer service is available Monday through Friday, 8:00 a.m. to 10:00 p.m.; Saturday and Sunday, 9:00 a.m. to 5:30 p.m.; Eastern time.
@@ -130,43 +89,6 @@
 Can my HSA be used to pay a premium?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If it is a nonmedical withdrawal an HSA may not be used as nonmedical withdrawals are subject to taxes and penalties. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FOLLOW UP AI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Would you like to hear the exceptions?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(If response is yes, look to A10 for conversation flow)</t>
-    </r>
-  </si>
-  <si>
-    <t>Yes I would like to hear the excceptions.
-Yes.</t>
-  </si>
-  <si>
     <t>*insert exceptions*</t>
   </si>
   <si>
@@ -181,39 +103,6 @@
     <t>If I am covered by an FSA, can I still contribute to an HSA account?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The type of FSA will determine if you can still contribute.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FOLLOW UP AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Would you like to hear all of the options regarding FSAs and HSA contribution?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(If response is yes, look to A13 for conversation flow)</t>
-    </r>
-  </si>
-  <si>
     <t>Yes I would like to hear about my FSA options.
 Yes.</t>
   </si>
@@ -222,39 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">How long should I save my receipts for my HSA medical expenses? </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Save your receipts for at least three years.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FOLLOW UP AI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Would you like to more about the IRS policy on receipts?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(If response is yes, look to A15 for conversation flow)</t>
-    </r>
   </si>
   <si>
     <t>Yes I would like more information regarding my receipts.
@@ -270,11 +126,6 @@
 </t>
   </si>
   <si>
-    <t>Yes, you may fully fund your HSA up to the contribution limit.
-Yep, but remember the contribution limit stays the same.
-You can contribute to your HSA as long as you stay under the contribution limit.</t>
-  </si>
-  <si>
     <t xml:space="preserve">What is the minimum threshold to begin investing in an HSA? 
 What is the least ammount of money I can invest into my HSA?
 Do I need to keep a minimum balance?
@@ -291,21 +142,11 @@
 What can you tell me about catch-up contributions?</t>
   </si>
   <si>
-    <t>Eligible individuals who are over age 55 are allowed to make additional “catch-up” contributions to their HSAs. The catch-up contribution is $1,000.
-People over 55 can make extra contributions to their HSA, up to $1000 a year.
-If you are over 55 you can make extra $1000 contributions to your HSA. In the biz we call these "catch-up" contributions</t>
-  </si>
-  <si>
     <t>What if I was but no longer am eligible for an HSA, can I still make a contribution?
 I stopped being eligible, can I still contribute to my HSA?
 Can I use an HSA to pay for things from last year?</t>
   </si>
   <si>
-    <t xml:space="preserve">You can make an HSA contribution even if you are no longer eligible if you are making it for a period when you were eligible. For example, assume you were eligible all of 2010 but you never opened or funded an HSA. Starting in 2011, you are no longer eligible. You can still make an HSA contribution in 2011 for 2010 (because you were eligible in 2010). Be careful as to how much you can contribute in a situation like this.
-You can make contributions to pay for qualified expenses in years you were eligible. Be careful about cow much you contribute.
-</t>
-  </si>
-  <si>
     <t>What expenses are qualified for reimbursement from my HSA?
 What can my HSA reimburse me for?
 If I paid for a medical expense out of pocket can I reimburse myself from my HSA?</t>
@@ -316,89 +157,26 @@
 You can look on the IRS website to see all expenses you can use your HSA for.</t>
   </si>
   <si>
-    <t>When will my tax forms for my HSA be available? 
-When can I access my HSA tax  forms?
-When can I see my (1099-SA/5498-SA)?</t>
-  </si>
-  <si>
-    <t>A. IRS Form 1099-SA is typically available around the end of January and will be posted to your account and mailed if you elected for a paper form. IRS Form 5498-SA is typically available around the end of February.
-Your 1099-SA should be ready by the end of January and your 5498-SA by the end of February.
-Your HSA Tax forms will be available by the end of February.</t>
-  </si>
-  <si>
-    <t>Can I make contributions through my employer on a "pre-tax" basis?
-Can I make "pre-tax" contributions?
-Can I make "pre-tax" contributions through my employer?</t>
-  </si>
-  <si>
-    <t>If your employer offers a "salary reduction" plan (also known as a "Section 125 plan" or "cafeteria plan"), you (the employee) can make contributions to your HSA on a pre-tax basis (i.e., before income taxes and FICA taxes). If you can do so, you cannot also take the "above-the-line" deduction on your personal income taxes.
-You can if your employer offers a "salary reduction" or "cafeteria plan"
-Your employer might allow you to make "pre-tax" contributions. Keep in mind, if you do you can't deduct it a second time for your personal taxes.</t>
-  </si>
-  <si>
     <t>How are contributions treated for owners and shareholders of S corps?
 How does owning an S corp affect my HSA?
 Am I eligible to make "pre-tax" contributions through my S corp?</t>
   </si>
   <si>
-    <t xml:space="preserve">Owners and officers with greater than 2% share of a Subchapter S corporation cannot make pre-tax contributions to their HSAs through the company by salary reduction. In addition, any contributions made to their HSAs by the corporation are taxable as income. However, they can make their own personal contributions to their HSAs and take the "above-the-line" deduction on their personal income taxes.
-You can not make "pre-tax" contributions through your S corporation but you can take "above-the-line" deductions on your own taxes.
-While you can't use your S corp for a "salary reduction" plan you can take deductions on your personal taxes.
-</t>
-  </si>
-  <si>
     <t>How do I transfer an HSA?
 I want to transfer my HSA, what do I need to know?
 Can you walk me through transfering my HSA?</t>
   </si>
   <si>
-    <t>If you already have a Health Savings Account (HSA) at another institution and would like to transfer the balance to your HSA, you can find the instructions on our Transfer and Rollover page.
-The OptumBank Transfer and Rollover page has all the information you need.
-Look online on our Transfer and Rollover page for how to transfer your HSA.</t>
-  </si>
-  <si>
-    <t>How do I add/change a beneficiary for my HSA account?
-How do I add my (Mom/Dad/Family Member) as a beneficiery for my HSA?
-How can I remove a beneficiary?*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log into optumbank.com or contact the Customer service number you use today for assistance
-You can edit beneficiaries online at optumbank.com or by calling customer service.
-Call customer service or log into your account online to change beneficiaries.
-</t>
-  </si>
-  <si>
     <t>Which states tax HSA contributions? 
 Does my state tax HSA contributions?
 Do I need to pay state taxes on my HSA?</t>
   </si>
   <si>
-    <t xml:space="preserve">Eligible HSA contributions are taxed by these states; Alabama,  California, and  New Jersey *Consult your financial advisor or state department of revenue for more information. 
-Only Alabama, California and New Jersey tax HSA contributions.
-If you live in Alabama, California, or New Jersey you may be subject to taxes on your HSA contributions
-</t>
-  </si>
-  <si>
-    <t>Where is the list of available mutual funds for an HSA ?
-Can I use a mutual fund for my HSA?
-Can I invest my HSA into (Mutual Fund Name)?</t>
-  </si>
-  <si>
-    <t>Optum Bank offers diversfied mutual fund options. The list of avaliable  funds can be found be found on OptumBank.com
-Check OptumBank.com to see all of our mutual fund options.
-You can use some mutual funds for your HSA, check online at optumbank.com for a complete list.</t>
-  </si>
-  <si>
     <t>What tools can help me invest? 
 Can you help me invest?
 Are there any tools to make investing easier?</t>
   </si>
   <si>
-    <t>Optum Bank provides multiple planning and guidance tools which can be found on the OptumBank.com. Through Optum Bank you are able to track your portfolio's performance, view market trends, have access to an HSA allocation calculator, and mannually or automatically rebalance your portfolio assets. 
-Opum Bank has loads of helpful tools on our website to help you manage your investments
-Check our website for a number of tools that can make investing your HSA easier!</t>
-  </si>
-  <si>
     <t>What does pre-tax dollars mean? Why is this important?
 What are pre-tax dollars?</t>
   </si>
@@ -418,41 +196,10 @@
 What is a dependent FSA?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The health care FSA and the dependent care FSA are completely separate accounts for different uses. Money from one FSA cannot be used for the other account’s purpose. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FOLLOW UP AI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Would you like to hear what each account can cover?
-(If answer is yes, look to A5 for conversation flow)</t>
-    </r>
-  </si>
-  <si>
     <t>Yes I'd like to know what my account can cover.
 Yes.</t>
   </si>
   <si>
-    <t>• Sample health care FSA expenses: doctor’s office visits, physical exams, hospital care, prescriptions, etc. • Sample dependent care FSA expenses: licensed daycare, elder care, preschool programs, etc.</t>
-  </si>
-  <si>
     <t>Can I change my annual election amount?
 How do I change my annual election amount?</t>
   </si>
@@ -462,9 +209,6 @@
   <si>
     <t>How do I submit my receipts for my HSA medical expenses? 
 How do I send in my receipts for medical expenses?</t>
-  </si>
-  <si>
-    <t>Through the online expense tracker, you can upload receipts and supporting documentation.</t>
   </si>
   <si>
     <t>Who can contribute to my HSA? 
@@ -479,11 +223,6 @@
 Will I lose the money in my FSA if I don't spend it?</t>
   </si>
   <si>
-    <t>The IRS has a “use or lose” rule for FSAs. This rule states that you’ll lose any unused money still in your account at the end of the plan year. Your employer, however, may have a “run-out” period after the plan year’s ends that allows you to submit claims for eligible expenses that were incurred during the plan year. This runout period may or may not include a grace period that allows you to incur claims for up to 2.5 months after the end of the plan year, and submit them against the prior year’s balance for reimbursement. Check with your employer or plan document to determine if your plan has a run-out period or a grace period.
-FSA's do not roll over.
-If you do not use all of the money in your FSA you will lose the rest.</t>
-  </si>
-  <si>
     <t>What are eligible medical expenses?
 What can I use my FSA to pay for?
 Can I use my FSA to pay for (Expense)</t>
@@ -501,11 +240,6 @@
     <t>If my child turns 13 this year, can I use the dependent care account for the whole year?
 When is the last day I can use my FSA on my child?
 Is there an age limit on using my FSA for my kid?</t>
-  </si>
-  <si>
-    <t>No, you may only submit claims for reimbursement for expenses incurred before your child reaches the age of 13.
-You can only use an FSA on children under 13.
-You can use your FSA on your child until they turn 13.</t>
   </si>
   <si>
     <t>I’m enrolled in a Health Savings Account (HSA). Can I still enroll in a health care FSA?
@@ -525,96 +259,13 @@
 Is there a limit to how much I can contribute?</t>
   </si>
   <si>
-    <t>The maximum contribution amount for the health care FSA will be $2,500. For dependent care FSAs, the annual maximum is $5,000.
-"For health care FSAs, your employer determines the minimum and maximum amounts you can set aside in your FSA. However as a result of Health Care Reform beginning January 1, 2013 the maximum contribution amount for the health care FSA will be $2,500. For dependent care FSAs, the annual maximum you can contribute is $5,000, including any amount set aside by a spouse into their dependent care FSA.
-There is a limit of $2,500 for individual FSA's and $5,000 for dependent care FSA's.
-You can only add $2,500 to your own FSA and twice that for dependents."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What happens to the money in a HSA after I turn age 65? 
-What happens to my Health Savings Account after turning 65?
-Tell me about my Health savings account when I'm older/65
-How can I use my Health savings account after turning 65? </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the age of 65, you can use your health savings account to pay for non medical expenses, however these will be taxable as income. You will also be able to use the money in your account to pay for any retiree health benefits you might have, or and Medicare related expenses. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Follow up question from AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Would you like to hear more about what you can do if you are older than 65? 
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Yes. </t>
   </si>
   <si>
     <t xml:space="preserve">You will still be able to use your account for out-of-pocket health expenses tax free. Those enrolled in Medicare can use your account to pay Medicare premiums, deductibles, copays, and coinsurance under any part of Medicare. The one expense that you cannot use your account to pay for is for Medicare supplemental insurance or Medigap policy. </t>
   </si>
   <si>
-    <t xml:space="preserve">How do I access the funds after I reach age 65?
-How do I get my funds from my health savings account? 
-Can I get my funds from my health savings account? 
-I want to get my funds from my health savings account </t>
-  </si>
-  <si>
     <t xml:space="preserve">After the age of 65, you can withdraw funds at any time. These funds can be used to pay for medical expenses, and also premiums for Medicare part A or B, Medicare HMO, and employee premiums. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the account beneficiary has attained age 65, are Medicare Part D premiums qualified medical expenses?
-are Medicare Part D premiums medical expenses?
-Can Medicare Part D premiums be used as medical expenses? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you are at least 65 years old, Medicare Part D premiums are qualified as medical expenses. 
-Medicare Part D premiums are qualified as medical expenses if you are the age of 65. 
-Beneficiaries over the age of 65 can use Medicare Part D premiums as medical expenses. The beneficiares spouse and dependents are also qualified. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For the year of 2017, you can contribute $4,400 for individual coverage, and $7,750 for family coverage. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Follow up question from AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">There are different contribution rates for 2018 and other benefits for those older than 65. Would you like to hear those? </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">In 2018, you can contribute $4,450 for individual coverage and $7,900 for family coverage. If you are 65, you can make an additional $1,000 catch-up contributions. </t>
@@ -626,58 +277,7 @@
 How do I get customer support? </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Follow up questions from AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Did you transfer your account from Wells Fargo? 
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Get that pen ready? The number for Optum Bank 1-844-326-7967. They are available 24/7. 
-Call Optum Bank at 1-844-326-7967. they are avaiable 24 hours a day. </t>
-  </si>
-  <si>
     <t xml:space="preserve">No. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Follow up question from AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Okay. Do you have UHC insurance? </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Get that pen ready! Call 1-800-791-9361. These customer care professionals are available Monday-Friday, 8AM to 8PM. </t>
@@ -689,29 +289,6 @@
     <t xml:space="preserve">What are Optum Banks Fees? 
 Tell me about Optum Banks Fees
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Follow up question from AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">There are three types of fees: Monthly Maintenance fees, ATM fees, and Outbound Transfer fees. Which would you like to hear about? </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Monthy Maintenance Fees
@@ -726,75 +303,9 @@
     <t>?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Follow up Question from AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Was it lost, stolen, or are you just in need of an additional card? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Follow up Question from AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Don't worry, we're here to help. Was it lost or stolen? </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">How much can I contribute to my HSA?
 How much can I put into my HSA?
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can I use my Health Savings Account to pay for Long Term Care Insurance?
-I want to use my HSA for Long Term Care 
-How can I pay for Long Term Care Insurance 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, a limited amount Long Term Care insurance can be paid with your HSA. This amount is based on your age. 
-A limited amount of distributions, based on age, can be used for Long Term Care Insurance premiums. 
-Long Term Care insurance premiums qualify as a non penalty medical expense from your HSA, however, the amount of distribution is limted based on your age. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can I use my HSA to pay for health insurance premiums, including Medicare, of a spouse or dependent? 
-Can my HSA pay for my spouse/dependents? 
-Can I use my HSA to pay for health insurance for my spouse / dependents? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only if you are over the age of 65. However, you can only pay for your spouse/dependent if they receive health care coverage through COBRA, or if they are getting unemploymemt compensation. 
-If you are at least 65, you can use your HSA to pay for your spouses/dependents insurance premiums if they are covered by COBRA or have unemployment compensation 
-Those over the age of 65 can pay for their spouses/dependents insurance premiums with HSA. However, they have to be covered by COBRA or unemployment compensation </t>
   </si>
   <si>
     <t xml:space="preserve">Month by month fee schedules can be found under the "view your account details" tab on the HSA Dashboard after you login. You can also refer to your Optum Bank Welcome Kit or your Employer Open Enrollment materials.
@@ -816,146 +327,33 @@
 My HSA card is stolen</t>
   </si>
   <si>
-    <t xml:space="preserve">Please call this number: 1-866-234-8913. This is the Optum Bank HSA number. They are available 24 hours a day. The number for Health Advantage Suite of Accounts is 1-800-243-5543. </t>
-  </si>
-  <si>
     <t xml:space="preserve">No. 
 I want to order an additional HSA card
 I want another HSA card 
 Can I order a new HSA card? </t>
   </si>
   <si>
-    <t xml:space="preserve">If you want to order additonal cards for either your spouse or dependents, go to Optum Banks website. 
-You can order new HSA cards for your spouse or other dependents if you to to Optum Banks website
-Yes, you can order an additional card. Go to Optum Banks website to order HSA cards for your spouse or other dependents. </t>
-  </si>
-  <si>
     <t>How can my spouse and I both contribute to an HSA account if we're both covered by HSA-qualified health plans?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Followup Question</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Are the accounts self-only (A4) or family contract (A5)?</t>
-    </r>
-  </si>
-  <si>
     <t>Self Only Contract</t>
   </si>
   <si>
-    <t>Allocate the total contribution between two HSAs as you want as long as you don't contribute more than the statutory maxinmum annual family contribution in total to both HSAs</t>
-  </si>
-  <si>
     <t>Family Contract</t>
   </si>
   <si>
-    <t>You can contribute no more than the statutory maximum annual contribution</t>
-  </si>
-  <si>
     <t>How do I get a PIN?</t>
   </si>
   <si>
-    <t>A new owner can get a PIN when they first activate their debit card. An existing PIN can be changed or found on the customer service number on the back of your card</t>
-  </si>
-  <si>
     <t xml:space="preserve">If I'm covered by an FSA, can I still contribute to an HSA account </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">General Health FSAs are not HSA-eligible but, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Followup Question: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Do you have a Limited Purpose (A7) or Post-Deductible FSA (A8)?</t>
-    </r>
-  </si>
-  <si>
     <t>Limited-Purpose</t>
   </si>
   <si>
-    <t>A Limited-Purpose Health FSA reimburses dental and vision expenses and select preventative services which aren't covered completely</t>
-  </si>
-  <si>
     <t>Post-Deductible</t>
   </si>
   <si>
-    <t>A Post-Deductible FSA doesn't begin to pay benefits until the subscriber has met a deductible responsibility equal to the minimum annual deductible for his or her contract type on an HSA-qualified plan</t>
-  </si>
-  <si>
-    <t>Can HSA's be used to pay premiums?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If it's a nonmedical withdrawal, no because they're subject to taxes and penalities. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Followup Question: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is it a medical withdrawal? (A10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -965,25 +363,7 @@
     <t>What are the different IRS forms?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Followup Question: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>What IRS form would you like to learn about? (A12/A13/A14)</t>
-    </r>
-  </si>
-  <si>
     <t>8899 Form</t>
-  </si>
-  <si>
-    <t>File this form with your income taxes to report year-to-date contributions and distributions from your HSA</t>
   </si>
   <si>
     <t>1099-SA Form</t>
@@ -1064,33 +444,6 @@
 What do I need to make an FSA claim?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">There are a number of documents that can and should be submitted for an FSA claim to be accepted. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FOLLOW UP QUESTION FROM AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Would you like to hear some examples?</t>
-    </r>
-  </si>
-  <si>
     <t>Yes.
 Please provide some examples.</t>
   </si>
@@ -1109,10 +462,6 @@
 How do I find out how much was reimbursed from my FSA balance?</t>
   </si>
   <si>
-    <t>When you request a reimbursement from your FSA, HealthPartners will send you an explanation of benefits statement. The EOB will tell you how much was reimbursed from your FSA.
-Upon requesting a reimbursment, you will receive an explanation of benefits statement that will show your balance.</t>
-  </si>
-  <si>
     <t>Can I use my Optum Bank FSA even if I am not enrolled in my company’s health plan?
 What if I am not on my company's health plan?</t>
   </si>
@@ -1123,9 +472,6 @@
   <si>
     <t>What happens to the money in the FSA if I leave my employer?
 If I quit my job, what happens to my FSA?</t>
-  </si>
-  <si>
-    <t>If you leave your place of employment during the plan year, you may have a period to submit claims for reimbursement. Services and expenses must have been inucrred before your termination date unless you continue to contribute to your FSA account through COBRA.</t>
   </si>
   <si>
     <t>If my FSA plan offers a grace period, how does that affect my eligibility for an HSA?
@@ -1258,33 +604,6 @@
     <t>How do I start using my HSA?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Follow our new account holder checklist to get off to a good start.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FOLLOW UP QUESTION FROM AI: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Would you like to hear more about this?</t>
-    </r>
-  </si>
-  <si>
     <t>Yes.
 Yes, tell me about the new account holder checklist.</t>
   </si>
@@ -1302,6 +621,704 @@
   <si>
     <t>Eligible dependent care expenses include in-home childcare, payments to licensed day care facilities, before or after school programs, and elder care. You may be reimbursed for dependent care expenses incurred for any individual in your family who’s under age 13 and can be claimed as a dependent on your federal income tax return, or for a spouse or dependent who’s not able to care for him or herself. These expenses must be incurred, regardless of when billed or paid, while you’re working or looking for work. Unlike a health care FSA, you’re only able to receive a reimbursement from a dependent care FSA if sufficient funds have accumulated in your account from payroll deductions.
 It is  a long list, feel free to ask me if a specific thing is covered.</t>
+  </si>
+  <si>
+    <t>Optum Bank also provides HSA calculators, multiple investment options, and constant customer care.</t>
+  </si>
+  <si>
+    <t>What are the customer service hours?
+When is customer service available?
+When can I call customer service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can upload receipts and supporting documentation through the online expense tracker. </t>
+  </si>
+  <si>
+    <t>Yes, you may fully fund your HSA up to the contribution limit.
+Yes, but remember the contribution limit stays the same.
+You can contribute to your HSA as long as you stay under the contribution limit.</t>
+  </si>
+  <si>
+    <t>Eligible individuals who are over age 55 are allowed to make additional “catch-up” contributions to their HSAs. The catch-up contribution is $1,000.
+People over 55 can make extra contributions to their HSA, up to $1000 a year.
+If you are over 55 you can make an extra $1000 contribution to your HSA each year. These are called catch-up contributions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can make an HSA contribution even if you are no longer eligible, so long as you are making it for a period when you were eligible. For example, if you were eligible all of 2010 but you never opened or funded an HSA, starting in 2011, you are no longer eligible. You can still make an HSA contribution in 2011 for 2010. Be careful as to how much you can contribute in a situation like this.
+You can make contributions to pay for qualified expenses in years you were eligible. Be careful about how much you contribute.
+</t>
+  </si>
+  <si>
+    <t>When will my tax forms for my HSA be available? 
+When can I access my HSA tax forms?
+When can I see my 1099-SA?
+Where can I view my 5498-SA?</t>
+  </si>
+  <si>
+    <t>IRS Form 1099-SA is typically available around the end of January and will be posted to your account and mailed if you elected for a paper form. IRS Form 5498-SA is typically available around the end of February.
+Your 1099-SA should be ready by the end of January and your 5498-SA by the end of February.
+Your HSA Tax forms will be available by the end of February.</t>
+  </si>
+  <si>
+    <t>Can I make contributions through my employer on a pre-tax basis?
+Can I make pre-tax contributions?
+Can I make pre-tax contributions through my employer?</t>
+  </si>
+  <si>
+    <t>If your employer offers a "salary reduction" plan (also known as a "Section 125 plan" or "cafeteria plan"), you can make contributions to your HSA on a pre-tax basis before income taxes and FICA taxes. If you can do so, you cannot also take the "above-the-line" deduction on your personal income taxes.
+You can if your employer offers a "salary reduction" or "cafeteria plan". In this case, your employer might allow you to make "pre-tax" contributions. Keep in mind, if you do you can't deduct it a second time for your personal taxes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owners and officers with greater than 2% share of a Subchapter S corporation cannot make pre-tax contributions to their HSAs through the company by salary reduction. In addition, any contributions made to their HSAs by the corporation are taxable as income. However, they can make their own personal contributions to their HSAs and take the "above-the-line" deduction on their personal income taxes.
+You can not make "pre-tax" contributions through your S corporation but you can take "above-the-line" deductions on your own taxes.
+While you can't use your S corp for a "salary reduction" plan, you can take deductions on your personal taxes.
+</t>
+  </si>
+  <si>
+    <t>If you already have a Health Savings Account (HSA) at another institution and would like to transfer the balance to your HSA, you can find the instructions on our Transfer and Rollover page.
+Look online on our Transfer and Rollover page for how to transfer your HSA.</t>
+  </si>
+  <si>
+    <t>How do I add or change a beneficiary for my HSA account?
+How do I add my (Mom/Dad/Family Member) as a beneficiery for my HSA?
+How can I remove a beneficiary?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log into optumbank.com or contact the Customer service number you use today for assistance
+You can edit beneficiaries online at optumbank.com or by calling customer service.
+Call customer service or log into your account online to make changes to your beneficiaries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible HSA contributions are taxed by these states; Alabama,  California, and  New Jersey. Consult your financial advisor or state department of revenue for more information. 
+Only Alabama, California and New Jersey tax HSA contributions.
+If you live in Alabama, California, or New Jersey you may be subject to taxes on your HSA contributions
+</t>
+  </si>
+  <si>
+    <t>Where is the list of available mutual funds for an HSA ?
+Can I use a mutual fund for my HSA?
+Can I invest my HSA into a mutual fund?</t>
+  </si>
+  <si>
+    <t>Optum Bank offers diversified mutual fund options. The list of avaliable funds can be found  on OptumBank.com
+Check OptumBank.com to see all of our mutual fund options.
+You can use some mutual funds for your HSA. Check online at optumbank.com for a complete list.</t>
+  </si>
+  <si>
+    <t>Optum Bank provides multiple planning and guidance tools which can be found on the OptumBank.com. Through Optum Bank you are able to track your portfolio's performance, view market trends, have access to an HSA allocation calculator, and mannually or automatically rebalance your portfolio assets. 
+Opum Bank has loads of helpful tools on our website to help you manage your investments.
+Check our website for a number of tools that can make investing your HSA easier!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happens to the money in a HSA after I turn age 65? 
+What happens to my Health Savings Account after turning 65?
+Tell me about my Health savings account when I'm older/65
+How can I use my Health savings account after turning 65? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I use my Health Savings Account to pay for Long Term Care Insurance?
+I want to use my HSA for Long Term Care.
+How can I pay for Long Term Care Insurance? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I access the funds after I reach age 65?
+How do I get my funds from my health savings account? 
+Can I get my funds from my health savings account? 
+I want to get my funds from my health savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the account beneficiary has attained age 65, are Medicare Part D premiums qualified medical expenses?
+Are Medicare Part D premiums medical expenses?
+Can Medicare Part D premiums be used as medical expenses? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A limited amount Long Term Care insurance can be paid with your HSA. This amount is based on your age. 
+A limited amount of distributions, based on age, can be used for Long Term Care Insurance premiums. 
+Long Term Care insurance premiums qualify as a non penalty medical expense from your HSA, however, the amount of distribution is limted based on your age. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are at least 65 years old, Medicare Part D premiums are qualified as medical expenses. 
+Medicare Part D premiums are qualified as medical expenses if you are the age of 65. 
+Beneficiaries over the age of 65 can use Medicare Part D premiums as medical expenses. The beneficiares spouse and dependents are also qualified. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I use my HSA to pay for health insurance premiums, including Medicare, of a spouse or dependent? 
+Can my HSA pay for my spouse/dependents? 
+Can I use my HSA to pay for health insurance for my spouse / dependents? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only if you are over the age of 65. However, you can only pay for your spouse/dependent if they receive health care coverage through COBRA, or if they are getting unemploymemt compensation. 
+If you are at least 65, you can use your HSA to pay for your spouses/dependents insurance premiums if they are covered by COBRA or have unemployment compensation. 
+Those over the age of 65 can pay for their spouses/dependents insurance premiums with HSA. However, they have to be covered by COBRA or unemployment compensation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get that pen ready? The number for Optum Bank 1-844-326-7967. They are available 24/7. 
+Call Optum Bank at 1-844-326-7967. they are available 24 hours a day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please call the following number: 1-866-234-8913. This is the Optum Bank HSA support number. They are available 24 hours a day. The number for Health Advantage Suite of Accounts is 1-800-243-5543. </t>
+  </si>
+  <si>
+    <t>A Limited-Purpose Health FSA reimburses dental and vision expenses and select preventative services which aren't covered completely.</t>
+  </si>
+  <si>
+    <t>A Post-Deductible FSA doesn't begin to pay benefits until the subscriber has met a deductible responsibility equal to the minimum annual deductible for his or her contract type on an HSA-qualified plan.</t>
+  </si>
+  <si>
+    <t>A new owner can get a PIN when they first activate their debit card. An existing PIN can be changed or found on the customer service number on the back of your card.</t>
+  </si>
+  <si>
+    <t>You can contribute no more than the statutory maximum annual contribution.</t>
+  </si>
+  <si>
+    <t>Allocate the total contribution between two HSAs as you want as long as you don't contribute more than the statutory maxinmum annual family contribution in total to both HSAs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to order additonal cards for either your spouse or dependents, go to the Optum Bank website. 
+You can order new HSA cards for your spouse or other dependents if you to to Optum Bank's website.
+Yes, you can order an additional card. Go to the Optum Bank website to order HSA cards for your spouse or other dependents. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Followup Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Are the accounts self-only or family contract?</t>
+    </r>
+  </si>
+  <si>
+    <t>Can HSA's be used to pay premiums?
+Can I pay premiums with my HSA?</t>
+  </si>
+  <si>
+    <t>File this form with your income taxes to report year-to-date contributions and distributions from your HSA.</t>
+  </si>
+  <si>
+    <t>Sample health care FSA expenses include: doctor’s office visits, physical exams, hospital care, prescriptions, etc..   Sample dependent care FSA expenses include: licensed daycare, elder care, preschool programs, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum contribution amount for the health care FSA will be $2,500. For dependent care FSAs, the annual maximum is $5,000.
+For health care FSAs, your employer determines the minimum and maximum amounts you can set aside in your FSA. However as a result of Health Care Reform beginning January 1, 2013 the maximum contribution amount for the health care FSA will be $2,500. For dependent care FSAs, the annual maximum you can contribute is $5,000, including any amount set aside by a spouse into their dependent care FSA.
+There is a limit of $2,500 for individual FSA's and $5,000 for dependent care FSA's.
+</t>
+  </si>
+  <si>
+    <t>The IRS has a “use or lose” rule for FSA's. This rule states that you’ll lose any unused money still in your account at the end of the plan year. Your employer, however, may have a “run-out” period after the plan year’s ends that allows you to submit claims for eligible expenses that were incurred during the plan year. This runout period may or may not include a grace period that allows you to incur claims for up to 2.5 months after the end of the plan year, and submit them against the prior year’s balance for reimbursement. Check with your employer or plan document to determine if your plan has a run-out period or a grace period.</t>
+  </si>
+  <si>
+    <t>Yes.
+Tell me more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you contribute to an HSA, you may only participate in a limited-use FSA. A limited-use FSA allows reimbursement of dental, vision and preventive care services only.
+You can but it can only be used for dental,vision and preventive care
+</t>
+  </si>
+  <si>
+    <t>No, you may only submit claims for reimbursement for expenses incurred before your child reaches the age of 13.
+You can only use an FSA on children under 13.
+You can use your FSA for your child until they turn 13.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A few enhancements include online contributions, bill payments and reimbursement options. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP PROMPT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Would you like to learn about more features?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(If response is yes, look to A4 for conversation flow)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If it is a nonmedical withdrawal, an HSA may not be used as nonmedical withdrawals are subject to taxes and penalties. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP PROMPT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Would you like to hear the exceptions?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The type of FSA will determine if you can still contribute.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP PROMPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Would you like to hear all of the options regarding FSAs and HSA contribution?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Save your receipts for at least three years.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP PROMPT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Would you like to more about the IRS policy on receipts?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the age of 65, you can use your health savings account to pay for non medical expenses, however these will be taxable as income. You will also be able to use the money in your account to pay for any retiree health benefits you might have, or and Medicare related expenses. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Would you like to hear more about what you can do if you are older than 65? 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For the year of 2017, you can contribute $4,400 for individual coverage, and $7,750 for family coverage. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">There are different contribution rates for 2018 and other benefits for those older than 65. Would you like to hear those? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Did you transfer your account from Wells Fargo? 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Okay. Do you have UHC insurance? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">There are three types of fees: Monthly Maintenance fees, ATM fees, and Outbound Transfer fees. Which would you like to hear about? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Was it lost, stolen, or are you just in need of an additional card? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Don't worry, we're here to help. Was it lost or stolen? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">General Health FSAs are not HSA-eligible but, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Do you have a Limited Purpose or Post-Deductible FSA?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If it's a nonmedical withdrawal, no because they're subject to taxes and penalities. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is it a medical withdrawal? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There are three different IRS forms: 8899 form, 1099-SA form, and 5498-SA form.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Which IRS form would you like to learn about? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow our new account holder checklist to get off to a good start.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Would you like to hear more about this?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The health care FSA and the dependent care FSA are completely separate accounts for different uses. Money from one FSA cannot be used for the other account’s purpose. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOLLOW UP PROMPT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Would you like to hear what each account can cover?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FSA's do not roll over. If you do not use all of the money in your FSA you will lose the rest.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Would you like to learn more about rolling over your FSA?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are a number of documents that can and should be submitted for an FSA claim to be accepted. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FOLLOW UP PROMPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Would you like to hear some examples?</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes I would like to hear the exceptions.
+Yes.</t>
+  </si>
+  <si>
+    <t>When you request a reimbursement from your FSA, HealthPartners will send you an explanation of benefits statement. The EOB will tell you how much was reimbursed from your FSA.
+Upon requesting a reimbursement, you will receive an explanation of benefits statement that will show your balance.</t>
+  </si>
+  <si>
+    <t>If you leave your place of employment during the plan year, you may have a period to submit claims for reimbursement. Services and expenses must have been incurred before your termination date unless you continue to contribute to your FSA account through COBRA.</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1446,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1470,12 +1487,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1486,6 +1506,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1555,8 +1578,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="40">
+  <cellStyles count="46">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1576,6 +1602,9 @@
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1595,6 +1624,9 @@
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="13" builtinId="10"/>
   </cellStyles>
@@ -1925,16 +1957,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="55.83203125" customWidth="1"/>
-    <col min="2" max="2" width="77" customWidth="1"/>
+    <col min="2" max="2" width="95.5" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
@@ -1968,12 +2000,12 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="60">
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1981,10 +2013,10 @@
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -1992,10 +2024,10 @@
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="13" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2003,10 +2035,10 @@
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -2014,10 +2046,10 @@
     </row>
     <row r="7" spans="1:5" ht="90">
       <c r="A7" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2025,10 +2057,10 @@
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -2036,21 +2068,21 @@
     </row>
     <row r="9" spans="1:5" ht="60">
       <c r="A9" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>22</v>
+      <c r="A10" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -2058,32 +2090,32 @@
     </row>
     <row r="11" spans="1:5" ht="60">
       <c r="A11" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="60">
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="60">
+    <row r="13" spans="1:5" ht="45">
       <c r="A13" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -2091,21 +2123,21 @@
     </row>
     <row r="14" spans="1:5" ht="45">
       <c r="A14" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" ht="75">
+    <row r="15" spans="1:5" ht="60">
       <c r="A15" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -2113,21 +2145,21 @@
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="13" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="45">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2135,10 +2167,10 @@
     </row>
     <row r="18" spans="1:5" ht="75">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -2146,10 +2178,10 @@
     </row>
     <row r="19" spans="1:5" ht="75">
       <c r="A19" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2157,21 +2189,21 @@
     </row>
     <row r="20" spans="1:5" ht="75">
       <c r="A20" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" ht="120">
+    <row r="21" spans="1:5" ht="105">
       <c r="A21" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2179,109 +2211,109 @@
     </row>
     <row r="22" spans="1:5" ht="105">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="90">
+    <row r="23" spans="1:5" ht="60">
       <c r="A23" s="10" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" ht="105">
+    <row r="24" spans="1:5" ht="75">
       <c r="A24" s="8" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="150">
+    <row r="25" spans="1:5" ht="120">
       <c r="A25" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="75">
+    <row r="26" spans="1:5" ht="45">
       <c r="A26" s="8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="75">
+    <row r="27" spans="1:5" ht="60">
       <c r="A27" s="10" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="90">
+    <row r="28" spans="1:5" ht="75">
       <c r="A28" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="75">
+    <row r="29" spans="1:5" ht="45">
       <c r="A29" s="18" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="90">
+    <row r="30" spans="1:5" ht="75">
       <c r="A30" s="19" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" ht="120">
+    <row r="31" spans="1:5" ht="90">
       <c r="A31" s="9" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -2289,65 +2321,65 @@
     </row>
     <row r="32" spans="1:5" ht="60">
       <c r="A32" s="9" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" ht="75">
+    <row r="33" spans="1:5" ht="60">
       <c r="A33" s="8" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:5" ht="120">
+    <row r="34" spans="1:5" ht="75">
       <c r="A34" s="9" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" ht="90">
+    <row r="35" spans="1:5" ht="60">
       <c r="A35" s="8" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" ht="135">
+    <row r="36" spans="1:5" ht="90">
       <c r="A36" s="9" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" ht="60">
+    <row r="37" spans="1:5" ht="45">
       <c r="A37" s="8" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -2355,10 +2387,10 @@
     </row>
     <row r="38" spans="1:5" ht="30">
       <c r="A38" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -2366,10 +2398,10 @@
     </row>
     <row r="39" spans="1:5" ht="60">
       <c r="A39" s="9" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -2377,10 +2409,10 @@
     </row>
     <row r="40" spans="1:5" ht="30">
       <c r="A40" s="9" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -2388,10 +2420,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="9" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -2399,21 +2431,21 @@
     </row>
     <row r="42" spans="1:5" ht="30">
       <c r="A42" s="9" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" ht="30">
+    <row r="43" spans="1:5">
       <c r="A43" s="21" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -2421,21 +2453,21 @@
     </row>
     <row r="44" spans="1:5" ht="45">
       <c r="A44" s="8" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" ht="210">
+    <row r="45" spans="1:5" ht="165">
       <c r="A45" s="8" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -2443,10 +2475,10 @@
     </row>
     <row r="46" spans="1:5" ht="45">
       <c r="A46" s="26" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -2454,10 +2486,10 @@
     </row>
     <row r="47" spans="1:5" ht="75">
       <c r="A47" s="8" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -2465,21 +2497,21 @@
     </row>
     <row r="48" spans="1:5" ht="45">
       <c r="A48" s="8" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" ht="120">
+    <row r="49" spans="1:5" ht="60">
       <c r="A49" s="8" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -2487,21 +2519,21 @@
     </row>
     <row r="50" spans="1:5" ht="30">
       <c r="A50" s="9" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" ht="45">
+    <row r="51" spans="1:5" ht="30">
       <c r="A51" s="9" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -2509,10 +2541,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="9" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2520,10 +2552,10 @@
     </row>
     <row r="53" spans="1:5" ht="30">
       <c r="A53" s="8" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -2531,10 +2563,10 @@
     </row>
     <row r="54" spans="1:5" ht="30">
       <c r="A54" s="9" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -2542,50 +2574,54 @@
     </row>
     <row r="55" spans="1:5" ht="30">
       <c r="A55" s="9" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="1:5" ht="45">
+    <row r="56" spans="1:5" ht="30">
       <c r="A56" s="9" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" ht="30">
       <c r="A58" s="8" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" ht="30">
-      <c r="A59" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>135</v>
+      <c r="A59" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2593,21 +2629,21 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>137</v>
+        <v>83</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" ht="30">
+    <row r="61" spans="1:5">
       <c r="A61" s="9" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -2615,201 +2651,190 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="9" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>143</v>
+    <row r="63" spans="1:5" ht="60">
+      <c r="A63" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="1:5" ht="75">
-      <c r="A64" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>181</v>
+    <row r="64" spans="1:5" ht="45">
+      <c r="A64" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" ht="45">
-      <c r="A65" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>183</v>
+    <row r="65" spans="1:5" ht="30">
+      <c r="A65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="45">
-      <c r="A66" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>185</v>
+      <c r="A66" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" ht="45">
-      <c r="A67" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>187</v>
+      <c r="A67" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" ht="45">
-      <c r="A68" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>189</v>
+      <c r="A68" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" ht="45">
-      <c r="A69" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>191</v>
+    <row r="69" spans="1:5" ht="60">
+      <c r="A69" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="1:5" ht="60">
-      <c r="A70" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>193</v>
+    <row r="70" spans="1:5" ht="45">
+      <c r="A70" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" ht="45">
-      <c r="A71" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>195</v>
+    <row r="71" spans="1:5" ht="30">
+      <c r="A71" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="1:5" ht="30">
-      <c r="A72" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>197</v>
+    <row r="72" spans="1:5" ht="105">
+      <c r="A72" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" ht="105">
-      <c r="A73" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>199</v>
+    <row r="73" spans="1:5" ht="75">
+      <c r="A73" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
     </row>
-    <row r="74" spans="1:5" ht="75">
-      <c r="A74" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>201</v>
+    <row r="74" spans="1:5" ht="30">
+      <c r="A74" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" ht="30">
-      <c r="A75" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>203</v>
+    <row r="75" spans="1:5" ht="45">
+      <c r="A75" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
     </row>
-    <row r="76" spans="1:5" ht="45">
-      <c r="A76" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>205</v>
+    <row r="76" spans="1:5" ht="30">
+      <c r="A76" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" ht="30">
-      <c r="A77" s="24" t="s">
-        <v>206</v>
+      <c r="A77" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
     </row>
-    <row r="78" spans="1:5" ht="45">
-      <c r="A78" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>209</v>
+    <row r="78" spans="1:5" ht="30">
+      <c r="A78" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" ht="60">
-      <c r="A79" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2824,217 +2849,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="1" max="1" width="67.83203125" customWidth="1"/>
+    <col min="2" max="2" width="90.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="27" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
       <c r="A4" s="8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="27" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="150">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120">
       <c r="A7" s="8" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="150">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="90">
-      <c r="A9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="135">
-      <c r="A10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="150">
-      <c r="A11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="A9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60">
+      <c r="A10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="105">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="120">
+      <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75">
+      <c r="A16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60">
-      <c r="A12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90">
-      <c r="A13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60">
-      <c r="A14" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="75">
-      <c r="A15" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="120">
-      <c r="A17" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75">
-      <c r="A18" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>169</v>
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>171</v>
+      <c r="A20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60">
-      <c r="A22" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>175</v>
+      <c r="A21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>179</v>
+      <c r="A23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3050,10 +3083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3062,60 +3095,77 @@
     <col min="2" max="2" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45">
-      <c r="A1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60">
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="4" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="4" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
-      <c r="A6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>157</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
